--- a/study01/report/motivation/pressure-tension/MeasurementModel.xlsx
+++ b/study01/report/motivation/pressure-tension/MeasurementModel.xlsx
@@ -4174,25 +4174,25 @@
         <v>31</v>
       </c>
       <c r="B30" t="n" s="269">
-        <v>0.9108224167457402</v>
+        <v>0.8863536458995608</v>
       </c>
       <c r="C30" t="n" s="270">
-        <v>-0.21327845187000322</v>
+        <v>-0.24119680665209206</v>
       </c>
       <c r="D30" t="n" s="271">
-        <v>0.8311097798151693</v>
+        <v>0.8094025857744882</v>
       </c>
       <c r="E30" t="n" s="272">
         <v>1.0</v>
       </c>
       <c r="F30" t="n" s="273">
-        <v>0.9524077868792127</v>
+        <v>0.9382818053922346</v>
       </c>
       <c r="G30" t="n" s="274">
-        <v>-0.20501651832866705</v>
+        <v>-0.27021320721685427</v>
       </c>
       <c r="H30" t="n" s="275">
-        <v>0.8375592193770794</v>
+        <v>0.7869962326153344</v>
       </c>
       <c r="I30" t="n" s="276">
         <v>1.0</v>
@@ -4203,25 +4203,25 @@
         <v>32</v>
       </c>
       <c r="B31" t="n" s="269">
-        <v>0.8482394127308482</v>
+        <v>0.8891864912985545</v>
       </c>
       <c r="C31" t="n" s="270">
-        <v>-0.21422234768916643</v>
+        <v>-0.11986991467382152</v>
       </c>
       <c r="D31" t="n" s="271">
-        <v>0.8303736696457593</v>
+        <v>0.9045861972099394</v>
       </c>
       <c r="E31" t="n" s="272">
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="273">
-        <v>0.8350679532622984</v>
+        <v>0.8342755733848005</v>
       </c>
       <c r="G31" t="n" s="274">
-        <v>-0.6631975775713352</v>
+        <v>-0.6535663736365803</v>
       </c>
       <c r="H31" t="n" s="275">
-        <v>0.5072040227507006</v>
+        <v>0.5133912143368125</v>
       </c>
       <c r="I31" t="n" s="276">
         <v>1.0</v>
@@ -4232,25 +4232,25 @@
         <v>33</v>
       </c>
       <c r="B32" t="n" s="269">
-        <v>1.147230699591112</v>
+        <v>1.3456230346359874</v>
       </c>
       <c r="C32" t="n" s="270">
-        <v>0.363229025387801</v>
+        <v>0.6302551833463227</v>
       </c>
       <c r="D32" t="n" s="271">
-        <v>0.7164338070404301</v>
+        <v>0.5285276398774384</v>
       </c>
       <c r="E32" t="n" s="272">
         <v>1.0</v>
       </c>
       <c r="F32" t="n" s="273">
-        <v>1.1324040802510005</v>
+        <v>1.1329783157855668</v>
       </c>
       <c r="G32" t="n" s="274">
-        <v>0.588555678154891</v>
+        <v>0.5836140653545651</v>
       </c>
       <c r="H32" t="n" s="275">
-        <v>0.5561593733541128</v>
+        <v>0.5594799949618241</v>
       </c>
       <c r="I32" t="n" s="276">
         <v>1.0</v>
@@ -4261,25 +4261,25 @@
         <v>34</v>
       </c>
       <c r="B33" t="n" s="269">
-        <v>0.947862269361333</v>
+        <v>0.997526518390688</v>
       </c>
       <c r="C33" t="n" s="270">
-        <v>-0.08569050045697843</v>
+        <v>0.068593588174577</v>
       </c>
       <c r="D33" t="n" s="271">
-        <v>0.9317124538888188</v>
+        <v>0.9453131227426916</v>
       </c>
       <c r="E33" t="n" s="272">
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="273">
-        <v>1.2211497809092724</v>
+        <v>1.252665192301166</v>
       </c>
       <c r="G33" t="n" s="274">
-        <v>0.8741151012528664</v>
+        <v>0.9916558850872571</v>
       </c>
       <c r="H33" t="n" s="275">
-        <v>0.3820555743472816</v>
+        <v>0.32136541776001665</v>
       </c>
       <c r="I33" t="n" s="276">
         <v>1.0</v>
@@ -4290,28 +4290,28 @@
         <v>55</v>
       </c>
       <c r="B34" t="n" s="269">
-        <v>1.3861136414811797</v>
+        <v>1.3919854924328356</v>
       </c>
       <c r="C34" t="n" s="270">
-        <v>2.1394360037617033</v>
+        <v>2.070997667539103</v>
       </c>
       <c r="D34" t="n" s="271">
-        <v>0.032400373675888654</v>
+        <v>0.03835901402875474</v>
       </c>
       <c r="E34" t="n" s="272">
-        <v>0.16200186837944328</v>
+        <v>0.1917950701437737</v>
       </c>
       <c r="F34" t="n" s="273">
-        <v>1.5290760864276214</v>
+        <v>1.5353355453375828</v>
       </c>
       <c r="G34" t="n" s="274">
-        <v>5.327661594082635</v>
+        <v>5.298521376149271</v>
       </c>
       <c r="H34" t="n" s="275">
-        <v>9.948525726065534E-8</v>
+        <v>1.1674421140592793E-7</v>
       </c>
       <c r="I34" t="n" s="276">
-        <v>8.953673153458981E-7</v>
+        <v>1.0506979026533514E-6</v>
       </c>
     </row>
     <row r="35">
@@ -4319,28 +4319,28 @@
         <v>56</v>
       </c>
       <c r="B35" t="n" s="269">
-        <v>1.0711304344805601</v>
+        <v>1.593782050605256</v>
       </c>
       <c r="C35" t="n" s="270">
-        <v>2.2631673660961598</v>
+        <v>2.651938486901768</v>
       </c>
       <c r="D35" t="n" s="271">
-        <v>0.023625374088711598</v>
+        <v>0.008003112077045686</v>
       </c>
       <c r="E35" t="n" s="272">
-        <v>0.1417522445322696</v>
+        <v>0.04801867246227411</v>
       </c>
       <c r="F35" t="n" s="273">
-        <v>1.3646680100090431</v>
+        <v>1.3425253636604746</v>
       </c>
       <c r="G35" t="n" s="274">
-        <v>3.0593486591056234</v>
+        <v>2.8159381491771343</v>
       </c>
       <c r="H35" t="n" s="275">
-        <v>0.0022181882980667855</v>
+        <v>0.004863502885925272</v>
       </c>
       <c r="I35" t="n" s="276">
-        <v>0.017745506384534284</v>
+        <v>0.038908023087402176</v>
       </c>
     </row>
     <row r="36">
@@ -4348,28 +4348,28 @@
         <v>57</v>
       </c>
       <c r="B36" t="n" s="269">
-        <v>1.0559047289988657</v>
+        <v>1.0647941244431542</v>
       </c>
       <c r="C36" t="n" s="270">
-        <v>24.543656711310046</v>
+        <v>36.61992030894192</v>
       </c>
       <c r="D36" t="n" s="271">
-        <v>5.054995581352838E-133</v>
+        <v>1.378536595080271E-293</v>
       </c>
       <c r="E36" t="n" s="272">
-        <v>3.538496906946986E-132</v>
+        <v>9.649756165561897E-293</v>
       </c>
       <c r="F36" t="n" s="273">
-        <v>1.284046266208626</v>
+        <v>1.2792657570887525</v>
       </c>
       <c r="G36" t="n" s="274">
-        <v>2.1410470785005034</v>
+        <v>2.109751594520945</v>
       </c>
       <c r="H36" t="n" s="275">
-        <v>0.03227024173283608</v>
+        <v>0.03487975784851664</v>
       </c>
       <c r="I36" t="n" s="276">
-        <v>0.1936214503970165</v>
+        <v>0.20927854709109986</v>
       </c>
     </row>
     <row r="37">
@@ -4377,10 +4377,10 @@
         <v>58</v>
       </c>
       <c r="B37" t="n" s="269">
-        <v>0.3068619537260214</v>
+        <v>0.281549358177637</v>
       </c>
       <c r="C37" t="n" s="270">
-        <v>759.5480321004125</v>
+        <v>1639.0771885361926</v>
       </c>
       <c r="D37" t="n" s="271">
         <v>0.0</v>
@@ -4389,16 +4389,16 @@
         <v>0.0</v>
       </c>
       <c r="F37" t="n" s="273">
-        <v>0.5696973251774424</v>
+        <v>0.5359532524946904</v>
       </c>
       <c r="G37" t="n" s="274">
-        <v>-2.406952021373678</v>
+        <v>-2.5836204475143822</v>
       </c>
       <c r="H37" t="n" s="275">
-        <v>0.016086283051393025</v>
+        <v>0.009776932210961648</v>
       </c>
       <c r="I37" t="n" s="276">
-        <v>0.11260398135975118</v>
+        <v>0.06843852547673153</v>
       </c>
     </row>
     <row r="38">
@@ -4406,19 +4406,19 @@
         <v>59</v>
       </c>
       <c r="B38" t="n" s="269">
-        <v>1.2506274352328592</v>
+        <v>1.1131958808693296</v>
       </c>
       <c r="C38" s="270"/>
       <c r="D38" s="271"/>
       <c r="E38" s="272"/>
       <c r="F38" t="n" s="273">
-        <v>1.1160432830463554</v>
+        <v>1.1234571851802464</v>
       </c>
       <c r="G38" t="n" s="274">
-        <v>0.3607619833461159</v>
+        <v>0.3726293629608043</v>
       </c>
       <c r="H38" t="n" s="275">
-        <v>0.7182773844593469</v>
+        <v>0.7094243158252804</v>
       </c>
       <c r="I38" t="n" s="276">
         <v>1.0</v>
